--- a/ExcelData/BBCRegister.xlsx
+++ b/ExcelData/BBCRegister.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>BirthDay</t>
   </si>
@@ -29,10 +29,10 @@
     <t>Password</t>
   </si>
   <si>
-    <t>12</t>
+    <t>24</t>
   </si>
   <si>
-    <t>24</t>
+    <t>12</t>
   </si>
   <si>
     <t>1987</t>
@@ -44,10 +44,22 @@
     <t>ABcDe123</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
-    <t>16</t>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>facaya5680@990ys.com</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>1980</t>
@@ -98,7 +110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -155,6 +167,23 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
